--- a/test/1. 各院彙整資料/國際事務學院.xlsx
+++ b/test/1. 各院彙整資料/國際事務學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E144EC25-0AC8-44B7-B6B4-3283D1961291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF95B62-2C3B-4350-9DF6-11195D8A122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBBEF798-9966-4962-8D28-FDA6966E669F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D171A3F8-A0BC-4B41-A92E-F1E0979A939F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0E5F86-CD36-44A5-9CBF-D7AD568C92BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92B8B9A-DCAE-4977-9FE5-537D0442B4A9}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/國際事務學院.xlsx
+++ b/test/1. 各院彙整資料/國際事務學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70EFD22-EF87-48CF-9FCB-08F09A0B6402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2391211B-56C3-4861-B15B-4803C9647A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{A7870C2F-581D-40B2-B03F-E1AE6B494C33}"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{A7870C2F-581D-40B2-B03F-E1AE6B494C33}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="35">
   <si>
     <t>國務院</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>800 國際事務學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>800 國際事務學院</t>
   </si>
   <si>
     <t>203 外交學系</t>
@@ -485,37 +482,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -523,14 +517,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -538,7 +532,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5374-4049-AD6E-01C724926249}"/>
+              <c16:uniqueId val="{00000000-B2BF-49B7-BAA1-32B453E3F76A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -573,37 +567,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -611,14 +602,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -626,7 +617,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5374-4049-AD6E-01C724926249}"/>
+              <c16:uniqueId val="{00000001-B2BF-49B7-BAA1-32B453E3F76A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -661,37 +652,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -699,14 +687,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -714,7 +702,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5374-4049-AD6E-01C724926249}"/>
+              <c16:uniqueId val="{00000002-B2BF-49B7-BAA1-32B453E3F76A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -825,7 +813,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5374-4049-AD6E-01C724926249}"/>
+                  <c16:uniqueId val="{00000003-B2BF-49B7-BAA1-32B453E3F76A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -897,37 +885,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -935,14 +920,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$11</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -951,7 +936,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5374-4049-AD6E-01C724926249}"/>
+              <c16:uniqueId val="{00000004-B2BF-49B7-BAA1-32B453E3F76A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1232,37 +1217,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1270,14 +1252,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1285,7 +1267,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE48-4BB8-8914-933133860A22}"/>
+              <c16:uniqueId val="{00000000-EEAF-4900-9C88-4AB5213CBB86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1320,37 +1302,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1358,14 +1337,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1373,7 +1352,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE48-4BB8-8914-933133860A22}"/>
+              <c16:uniqueId val="{00000001-EEAF-4900-9C88-4AB5213CBB86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,37 +1387,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1446,14 +1422,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1461,7 +1437,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EE48-4BB8-8914-933133860A22}"/>
+              <c16:uniqueId val="{00000002-EEAF-4900-9C88-4AB5213CBB86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1572,7 +1548,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EE48-4BB8-8914-933133860A22}"/>
+                  <c16:uniqueId val="{00000003-EEAF-4900-9C88-4AB5213CBB86}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1644,37 +1620,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1682,14 +1655,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$11</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1698,7 +1671,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EE48-4BB8-8914-933133860A22}"/>
+              <c16:uniqueId val="{00000004-EEAF-4900-9C88-4AB5213CBB86}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1979,37 +1952,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2017,14 +1987,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2032,7 +2002,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BF5-497C-93B0-B787AEE05439}"/>
+              <c16:uniqueId val="{00000000-1098-4830-8CF2-9FA725CEA185}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2067,37 +2037,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2105,14 +2072,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2120,7 +2087,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9BF5-497C-93B0-B787AEE05439}"/>
+              <c16:uniqueId val="{00000001-1098-4830-8CF2-9FA725CEA185}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2155,37 +2122,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2193,14 +2157,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2208,7 +2172,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9BF5-497C-93B0-B787AEE05439}"/>
+              <c16:uniqueId val="{00000002-1098-4830-8CF2-9FA725CEA185}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2319,7 +2283,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9BF5-497C-93B0-B787AEE05439}"/>
+                  <c16:uniqueId val="{00000003-1098-4830-8CF2-9FA725CEA185}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2391,37 +2355,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2429,14 +2390,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$11</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2445,7 +2406,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9BF5-497C-93B0-B787AEE05439}"/>
+              <c16:uniqueId val="{00000004-1098-4830-8CF2-9FA725CEA185}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2726,37 +2687,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2764,14 +2722,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2779,7 +2737,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-92B6-4DDB-9DD1-D474A9BC4798}"/>
+              <c16:uniqueId val="{00000000-45A2-4007-9712-AADA64EA1D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2814,37 +2772,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2852,14 +2807,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2867,7 +2822,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-92B6-4DDB-9DD1-D474A9BC4798}"/>
+              <c16:uniqueId val="{00000001-45A2-4007-9712-AADA64EA1D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2902,37 +2857,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2940,14 +2892,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2955,7 +2907,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-92B6-4DDB-9DD1-D474A9BC4798}"/>
+              <c16:uniqueId val="{00000002-45A2-4007-9712-AADA64EA1D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3066,7 +3018,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-92B6-4DDB-9DD1-D474A9BC4798}"/>
+                  <c16:uniqueId val="{00000003-45A2-4007-9712-AADA64EA1D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3138,37 +3090,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3176,14 +3125,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$11</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3192,7 +3141,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-92B6-4DDB-9DD1-D474A9BC4798}"/>
+              <c16:uniqueId val="{00000004-45A2-4007-9712-AADA64EA1D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3473,37 +3422,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3511,14 +3457,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3526,7 +3472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB9E-4A3F-8F34-18D550204E2C}"/>
+              <c16:uniqueId val="{00000000-2631-42AE-A7E7-5FED33C9BECF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3561,37 +3507,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3599,14 +3542,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3614,7 +3557,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB9E-4A3F-8F34-18D550204E2C}"/>
+              <c16:uniqueId val="{00000001-2631-42AE-A7E7-5FED33C9BECF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3649,37 +3592,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3687,14 +3627,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3702,7 +3642,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB9E-4A3F-8F34-18D550204E2C}"/>
+              <c16:uniqueId val="{00000002-2631-42AE-A7E7-5FED33C9BECF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3813,7 +3753,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CB9E-4A3F-8F34-18D550204E2C}"/>
+                  <c16:uniqueId val="{00000003-2631-42AE-A7E7-5FED33C9BECF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3885,37 +3825,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3923,14 +3860,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$11</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3939,7 +3876,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CB9E-4A3F-8F34-18D550204E2C}"/>
+              <c16:uniqueId val="{00000004-2631-42AE-A7E7-5FED33C9BECF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4220,37 +4157,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4258,14 +4192,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4273,7 +4207,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0721-454B-8C06-B3D690D428E7}"/>
+              <c16:uniqueId val="{00000000-B651-446C-90D3-A5E534E51743}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4308,37 +4242,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4346,14 +4277,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4361,7 +4292,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0721-454B-8C06-B3D690D428E7}"/>
+              <c16:uniqueId val="{00000001-B651-446C-90D3-A5E534E51743}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4396,37 +4327,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4434,14 +4362,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4449,7 +4377,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0721-454B-8C06-B3D690D428E7}"/>
+              <c16:uniqueId val="{00000002-B651-446C-90D3-A5E534E51743}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4560,7 +4488,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0721-454B-8C06-B3D690D428E7}"/>
+                  <c16:uniqueId val="{00000003-B651-446C-90D3-A5E534E51743}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4632,37 +4560,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4670,14 +4595,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$11</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4686,7 +4611,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0721-454B-8C06-B3D690D428E7}"/>
+              <c16:uniqueId val="{00000004-B651-446C-90D3-A5E534E51743}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4967,37 +4892,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5005,14 +4927,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5020,7 +4942,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D16-4A06-A595-C29862BE001D}"/>
+              <c16:uniqueId val="{00000000-7CAD-4351-87D8-50341FDCF333}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5055,37 +4977,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5093,14 +5012,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -5108,7 +5027,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D16-4A06-A595-C29862BE001D}"/>
+              <c16:uniqueId val="{00000001-7CAD-4351-87D8-50341FDCF333}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5143,37 +5062,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5181,14 +5097,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -5196,7 +5112,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8D16-4A06-A595-C29862BE001D}"/>
+              <c16:uniqueId val="{00000002-7CAD-4351-87D8-50341FDCF333}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5307,7 +5223,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8D16-4A06-A595-C29862BE001D}"/>
+                  <c16:uniqueId val="{00000003-7CAD-4351-87D8-50341FDCF333}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5379,37 +5295,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>國務院</c:v>
+                  <c:v>外交系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>外交系</c:v>
+                  <c:v>東亞所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>東亞所</c:v>
+                  <c:v>俄研所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>俄研所</c:v>
+                  <c:v>日學碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>日學碩</c:v>
+                  <c:v>戰略碩</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>戰略碩</c:v>
+                  <c:v>國安專</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>國安專</c:v>
+                  <c:v>日學博</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5417,14 +5330,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$11</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="8">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5433,7 +5346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8D16-4A06-A595-C29862BE001D}"/>
+              <c16:uniqueId val="{00000004-7CAD-4351-87D8-50341FDCF333}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5662,7 +5575,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197982BC-51A2-4F8D-B479-62A0F4A85505}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285024D2-F789-46A2-A659-29ED96BEE66D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5695,7 +5608,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA6DA68-92D1-405F-B6DA-C535B53ADBD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BCE0C6-CEDA-459B-8768-F087F6521B8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5728,7 +5641,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F800BA11-7BFF-43B4-BDD8-6F772C6E9F31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C65F3B-12CE-4CF5-95AD-9EF01F158A00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5761,7 +5674,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF56A3A0-E900-4636-852C-1CFC6313333F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F71F04B-1204-4D97-86CF-E696209DE22D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,7 +5707,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624BC619-E53E-4C64-B4B4-16BF76E49EA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9245C-8A31-4F8B-BC06-591829BEE15D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5827,7 +5740,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E0BE76-4825-4981-9943-3693D23121B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C28C1AD-6927-49ED-BE29-04F9D48DCBA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5860,7 +5773,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DC7330-9941-4B24-A724-902B457D9D74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA1E706-D85D-4C11-BD71-AD7CCA2C91C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5910,7 +5823,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -5927,7 +5840,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -6325,25 +6238,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{1D8A908A-BDEA-4DC6-AD44-F4E8224794CD}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{762B084A-F38F-4086-9E69-2FE2A0CC2823}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{21376057-87D2-4851-AC13-A4013D78FDC9}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{E106C382-C4CC-47A9-BF38-A2E76354B756}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{121A02DF-547C-409C-B66F-0EECA30473ED}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{8DED1175-31CC-4A9E-99CF-8389B7D57A13}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{6F9D70E6-C364-46F3-946A-3C1520110348}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{0D2BC30F-5940-4A67-83F8-B0BEBB7784C2}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{AB9E4016-CEBC-498D-B97F-1152482AC847}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{DF5E873D-7CA5-44EC-A639-FDB47A4EE8E2}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{7A911E78-174A-4ECC-A51C-63C54A7791B4}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{1444D337-CAD4-4DD3-B1C1-DE4CE94F3832}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{D15A154B-2049-4FB8-9F7E-4CD29B97E232}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{E1927850-0A64-4F97-A44F-2C2A2C80FEAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E510D25-882C-4C05-B234-510CEA78A29C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B997686-5105-408A-BEA2-8A586819E890}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6398,16 +6311,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6420,7 +6331,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6433,7 +6344,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6446,7 +6357,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6459,7 +6370,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6472,7 +6383,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6485,7 +6396,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6498,39 +6409,28 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="C10" s="10">
         <v>0.05</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D10" s="10">
         <v>0.04</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E10" s="10">
         <v>0.01</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F10" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6541,12 +6441,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B853791A-264F-4671-BF86-84567B292DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35B4A06-3F1D-46BD-B33F-5F660DDB8820}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6601,16 +6501,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6623,7 +6521,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6636,7 +6534,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6649,7 +6547,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6662,7 +6560,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6675,7 +6573,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6688,7 +6586,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6701,39 +6599,28 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="C10" s="10">
         <v>0.05</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D10" s="10">
         <v>0.04</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E10" s="10">
         <v>0.01</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F10" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6744,12 +6631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6713B8-68AA-4C5F-98A1-0716BE79F22C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0871A7-C9AA-4792-851E-9F7EC2A295AD}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6804,16 +6691,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6826,7 +6711,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6839,7 +6724,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -6852,7 +6737,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6865,7 +6750,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -6878,7 +6763,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -6891,7 +6776,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -6904,39 +6789,28 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="C10" s="11">
         <v>0.05</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D10" s="11">
         <v>0.04</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E10" s="11">
         <v>0.01</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F10" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6947,12 +6821,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8BAE69-F24D-4CEA-917F-F75AA2DDF18D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CBC592-818C-4182-B233-6945698CF467}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7007,16 +6881,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7029,7 +6901,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7042,7 +6914,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7055,7 +6927,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7068,7 +6940,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7081,7 +6953,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7094,7 +6966,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7107,39 +6979,28 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="C10" s="12">
         <v>0.05</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D10" s="12">
         <v>0.04</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E10" s="12">
         <v>0.01</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F10" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7150,12 +7011,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBF5798-AD4E-466D-9AD6-D6E4C737B1AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D93A70-9ACD-4B83-A3F6-10C4711F37E6}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7210,16 +7071,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7232,7 +7091,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7245,7 +7104,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7258,7 +7117,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7271,7 +7130,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7284,7 +7143,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7297,7 +7156,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7310,39 +7169,28 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="C10" s="12">
         <v>0.05</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D10" s="12">
         <v>0.04</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E10" s="12">
         <v>0.01</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F10" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7353,12 +7201,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48788A36-43B2-4EFF-B7C7-8722D7AF6481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1337F1-E313-46A7-BC3B-77D9034EDC12}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7399,7 +7247,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7413,16 +7261,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7435,7 +7281,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7448,7 +7294,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7461,7 +7307,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7474,7 +7320,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7487,7 +7333,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7500,7 +7346,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7513,39 +7359,28 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="C10" s="12">
         <v>0.05</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D10" s="12">
         <v>0.04</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E10" s="12">
         <v>0.01</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F10" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7556,12 +7391,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D70511-7197-41AB-9E3C-E7E809C338F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CC794-5491-40D7-804B-CE1F74A90F65}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7602,7 +7437,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7616,16 +7451,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7638,7 +7471,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7651,7 +7484,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7664,7 +7497,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7677,7 +7510,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7690,7 +7523,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7703,7 +7536,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7716,39 +7549,28 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="12">
+      <c r="C10" s="12">
         <v>0.05</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D10" s="12">
         <v>0.04</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E10" s="12">
         <v>0.01</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F10" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
-      <sortCondition descending="1" ref="G1:G11"/>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+      <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/國際事務學院.xlsx
+++ b/test/1. 各院彙整資料/國際事務學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2391211B-56C3-4861-B15B-4803C9647A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06008C-587E-4F58-A23D-831EF1B58398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{A7870C2F-581D-40B2-B03F-E1AE6B494C33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{A7870C2F-581D-40B2-B03F-E1AE6B494C33}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$10</definedName>
@@ -53,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="35">
-  <si>
-    <t>國務院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="44">
   <si>
     <t>外交系</t>
   </si>
@@ -80,27 +74,6 @@
   </si>
   <si>
     <t>國研碩</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -168,6 +141,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>國務院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -484,33 +508,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -520,19 +520,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B2BF-49B7-BAA1-32B453E3F76A}"/>
+              <c16:uniqueId val="{00000000-6598-4B5E-BFA5-CE9158138099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -569,33 +566,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -605,19 +578,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B2BF-49B7-BAA1-32B453E3F76A}"/>
+              <c16:uniqueId val="{00000001-6598-4B5E-BFA5-CE9158138099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -654,33 +624,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -690,19 +636,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B2BF-49B7-BAA1-32B453E3F76A}"/>
+              <c16:uniqueId val="{00000002-6598-4B5E-BFA5-CE9158138099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -766,7 +709,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -813,7 +760,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B2BF-49B7-BAA1-32B453E3F76A}"/>
+                  <c16:uniqueId val="{00000003-6598-4B5E-BFA5-CE9158138099}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -822,7 +769,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -887,33 +838,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -923,12 +850,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +860,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B2BF-49B7-BAA1-32B453E3F76A}"/>
+              <c16:uniqueId val="{00000004-6598-4B5E-BFA5-CE9158138099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1219,33 +1143,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1255,19 +1155,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EEAF-4900-9C88-4AB5213CBB86}"/>
+              <c16:uniqueId val="{00000000-C909-4CF8-B181-26EBDEFFB443}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1304,33 +1201,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1340,19 +1213,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EEAF-4900-9C88-4AB5213CBB86}"/>
+              <c16:uniqueId val="{00000001-C909-4CF8-B181-26EBDEFFB443}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1389,33 +1259,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,19 +1271,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EEAF-4900-9C88-4AB5213CBB86}"/>
+              <c16:uniqueId val="{00000002-C909-4CF8-B181-26EBDEFFB443}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1501,7 +1344,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1548,7 +1395,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EEAF-4900-9C88-4AB5213CBB86}"/>
+                  <c16:uniqueId val="{00000003-C909-4CF8-B181-26EBDEFFB443}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1557,7 +1404,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1622,33 +1473,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1658,12 +1485,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1495,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EEAF-4900-9C88-4AB5213CBB86}"/>
+              <c16:uniqueId val="{00000004-C909-4CF8-B181-26EBDEFFB443}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1954,33 +1778,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1990,19 +1790,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1098-4830-8CF2-9FA725CEA185}"/>
+              <c16:uniqueId val="{00000000-3E93-4F11-9CA6-8B3B29946FCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2039,33 +1836,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2075,19 +1848,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1098-4830-8CF2-9FA725CEA185}"/>
+              <c16:uniqueId val="{00000001-3E93-4F11-9CA6-8B3B29946FCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2124,33 +1894,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2160,19 +1906,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1098-4830-8CF2-9FA725CEA185}"/>
+              <c16:uniqueId val="{00000002-3E93-4F11-9CA6-8B3B29946FCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2236,7 +1979,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2283,7 +2030,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1098-4830-8CF2-9FA725CEA185}"/>
+                  <c16:uniqueId val="{00000003-3E93-4F11-9CA6-8B3B29946FCB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2292,7 +2039,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2357,33 +2108,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2393,12 +2120,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,7 +2130,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1098-4830-8CF2-9FA725CEA185}"/>
+              <c16:uniqueId val="{00000004-3E93-4F11-9CA6-8B3B29946FCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2689,33 +2413,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2725,19 +2425,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-45A2-4007-9712-AADA64EA1D83}"/>
+              <c16:uniqueId val="{00000000-BA28-48A8-935E-8961A99CD92B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2774,33 +2471,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2810,19 +2483,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-45A2-4007-9712-AADA64EA1D83}"/>
+              <c16:uniqueId val="{00000001-BA28-48A8-935E-8961A99CD92B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2859,33 +2529,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2895,19 +2541,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-45A2-4007-9712-AADA64EA1D83}"/>
+              <c16:uniqueId val="{00000002-BA28-48A8-935E-8961A99CD92B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2971,7 +2614,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3018,7 +2665,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-45A2-4007-9712-AADA64EA1D83}"/>
+                  <c16:uniqueId val="{00000003-BA28-48A8-935E-8961A99CD92B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3027,7 +2674,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3092,33 +2743,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3128,12 +2755,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3141,7 +2765,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-45A2-4007-9712-AADA64EA1D83}"/>
+              <c16:uniqueId val="{00000004-BA28-48A8-935E-8961A99CD92B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3424,33 +3048,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3460,19 +3060,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2631-42AE-A7E7-5FED33C9BECF}"/>
+              <c16:uniqueId val="{00000000-F2DE-4560-B77F-421546B5A4A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3509,33 +3106,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3545,19 +3118,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2631-42AE-A7E7-5FED33C9BECF}"/>
+              <c16:uniqueId val="{00000001-F2DE-4560-B77F-421546B5A4A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3594,33 +3164,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3630,19 +3176,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2631-42AE-A7E7-5FED33C9BECF}"/>
+              <c16:uniqueId val="{00000002-F2DE-4560-B77F-421546B5A4A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3706,7 +3249,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3753,7 +3300,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2631-42AE-A7E7-5FED33C9BECF}"/>
+                  <c16:uniqueId val="{00000003-F2DE-4560-B77F-421546B5A4A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3762,7 +3309,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3827,33 +3378,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3863,12 +3390,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,7 +3400,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2631-42AE-A7E7-5FED33C9BECF}"/>
+              <c16:uniqueId val="{00000004-F2DE-4560-B77F-421546B5A4A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4159,33 +3683,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4195,19 +3695,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B651-446C-90D3-A5E534E51743}"/>
+              <c16:uniqueId val="{00000000-EDD6-4654-AFEB-BA122E8D6F0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4244,33 +3741,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4280,19 +3753,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B651-446C-90D3-A5E534E51743}"/>
+              <c16:uniqueId val="{00000001-EDD6-4654-AFEB-BA122E8D6F0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4329,33 +3799,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4365,19 +3811,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B651-446C-90D3-A5E534E51743}"/>
+              <c16:uniqueId val="{00000002-EDD6-4654-AFEB-BA122E8D6F0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4441,7 +3884,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4488,7 +3935,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B651-446C-90D3-A5E534E51743}"/>
+                  <c16:uniqueId val="{00000003-EDD6-4654-AFEB-BA122E8D6F0F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4497,7 +3944,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4562,33 +4013,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4598,12 +4025,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4611,7 +4035,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B651-446C-90D3-A5E534E51743}"/>
+              <c16:uniqueId val="{00000004-EDD6-4654-AFEB-BA122E8D6F0F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4894,33 +4318,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4930,19 +4330,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CAD-4351-87D8-50341FDCF333}"/>
+              <c16:uniqueId val="{00000000-26A2-4AA9-9924-D47C9F0BF8D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4979,33 +4376,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5015,19 +4388,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7CAD-4351-87D8-50341FDCF333}"/>
+              <c16:uniqueId val="{00000001-26A2-4AA9-9924-D47C9F0BF8D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5064,33 +4434,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5100,19 +4446,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7CAD-4351-87D8-50341FDCF333}"/>
+              <c16:uniqueId val="{00000002-26A2-4AA9-9924-D47C9F0BF8D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5176,7 +4519,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5223,7 +4570,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7CAD-4351-87D8-50341FDCF333}"/>
+                  <c16:uniqueId val="{00000003-26A2-4AA9-9924-D47C9F0BF8D2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5232,7 +4579,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5297,33 +4648,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>外交系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>東亞所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>俄研所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>日學碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>戰略碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>國安專</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>日學博</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>國研碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5333,12 +4660,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5346,7 +4670,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7CAD-4351-87D8-50341FDCF333}"/>
+              <c16:uniqueId val="{00000004-26A2-4AA9-9924-D47C9F0BF8D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5575,7 +4899,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285024D2-F789-46A2-A659-29ED96BEE66D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6573E4D-C58D-4040-97F5-E8F6C4237E79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5608,7 +4932,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BCE0C6-CEDA-459B-8768-F087F6521B8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4416BB-D4FC-4EC8-A4BD-C9E74A07E237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5641,7 +4965,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C65F3B-12CE-4CF5-95AD-9EF01F158A00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFE42E9-0A1F-4192-8BA0-3FADB131C001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5674,7 +4998,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F71F04B-1204-4D97-86CF-E696209DE22D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A259F45B-96B9-4E5C-AACE-7AF87BCF5137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5707,7 +5031,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9245C-8A31-4F8B-BC06-591829BEE15D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65883EA-0FC3-45AE-AD20-449199718587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5740,7 +5064,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C28C1AD-6927-49ED-BE29-04F9D48DCBA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F466AC-74B2-445D-AA10-84E3FCEECEDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5773,7 +5097,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA1E706-D85D-4C11-BD71-AD7CCA2C91C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670E3A60-2F3A-48CB-A73C-C2E9570D92F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5794,72 +5118,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6157,106 +5415,177 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{DE71919F-4740-4034-9D82-E80610C6862B}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0F35BB-0D89-4E6D-8918-D1818CE4A21E}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="7.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{0D2BC30F-5940-4A67-83F8-B0BEBB7784C2}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{AB9E4016-CEBC-498D-B97F-1152482AC847}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{DF5E873D-7CA5-44EC-A639-FDB47A4EE8E2}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{7A911E78-174A-4ECC-A51C-63C54A7791B4}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{1444D337-CAD4-4DD3-B1C1-DE4CE94F3832}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{D15A154B-2049-4FB8-9F7E-4CD29B97E232}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{E1927850-0A64-4F97-A44F-2C2A2C80FEAB}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{C9BBF799-35A8-4139-BF79-36B9DD1B2147}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{1B6AF420-7ADC-4E86-AE05-85F15DE53497}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{E96332FC-2E01-4CE6-B77B-4DE7F5CB7C88}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{0121D642-B737-42E9-9E96-036DE2EE7D3A}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AA82A3C0-965E-4C88-89FF-13E275659EF3}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{03F2F2FA-AEEE-4AA7-8C5A-7F5DD6FE30F5}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{8C10D1E5-57D3-45DD-A632-B24E826FEE1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B997686-5105-408A-BEA2-8A586819E890}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B2D010-87AF-4D61-92F1-7BBFDCBF0CBC}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6269,170 +5598,253 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
       <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6441,12 +5853,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35B4A06-3F1D-46BD-B33F-5F660DDB8820}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6260995A-482B-47ED-A586-4DB203D61F45}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6459,170 +5871,253 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
+      <c r="C10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
       <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6631,12 +6126,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0871A7-C9AA-4792-851E-9F7EC2A295AD}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF376F69-36EB-40C1-81C1-7B2A27AE0527}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6649,170 +6144,253 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
       <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6821,12 +6399,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CBC592-818C-4182-B233-6945698CF467}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89146D96-5AEE-4AE9-9B0A-B93DEB49D913}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6839,170 +6417,253 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
       <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7011,12 +6672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D93A70-9ACD-4B83-A3F6-10C4711F37E6}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338F79D5-098B-4940-B503-95A2F844B45C}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7029,170 +6690,253 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
       <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7201,12 +6945,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1337F1-E313-46A7-BC3B-77D9034EDC12}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861D34D-A29C-490A-AC3D-FD5678E0A0B0}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7219,170 +6963,253 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
       <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7391,12 +7218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0CC794-5491-40D7-804B-CE1F74A90F65}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E9F6C9-6923-474C-B0AC-D91E8ED36756}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7409,170 +7236,253 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>999</v>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
       <sortCondition descending="1" ref="G1:G10"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/國際事務學院.xlsx
+++ b/test/1. 各院彙整資料/國際事務學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF06008C-587E-4F58-A23D-831EF1B58398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F440A4-9E92-4CA0-B64E-AF93BB0A272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{A7870C2F-581D-40B2-B03F-E1AE6B494C33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{08CC219F-DB53-4152-9C38-7ECC706FB9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$10</definedName>
@@ -50,100 +50,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="54">
+  <si>
+    <t>800 國際事務學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>國務院</t>
+  </si>
+  <si>
+    <t>203 外交學系</t>
+  </si>
   <si>
     <t>外交系</t>
+  </si>
+  <si>
+    <t>260 東亞研究所</t>
   </si>
   <si>
     <t>東亞所</t>
   </si>
   <si>
+    <t>263 俄羅斯研究所</t>
+  </si>
+  <si>
     <t>俄研所</t>
+  </si>
+  <si>
+    <t>861 日本研究碩士學位學程</t>
   </si>
   <si>
     <t>日學碩</t>
   </si>
   <si>
+    <t>922 外交學系戰略與國際事務碩士在職專班</t>
+  </si>
+  <si>
     <t>戰略碩</t>
+  </si>
+  <si>
+    <t>981 國家安全與大陸研究碩士在職專班</t>
   </si>
   <si>
     <t>國安專</t>
   </si>
   <si>
-    <t>日學博</t>
+    <t>863 日本研究博士學位學程</t>
   </si>
   <si>
-    <t>國研碩</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>800 國際事務學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>203 外交學系</t>
-  </si>
-  <si>
-    <t>260 東亞研究所</t>
-  </si>
-  <si>
-    <t>263 俄羅斯研究所</t>
-  </si>
-  <si>
-    <t>861 日本研究碩士學位學程</t>
-  </si>
-  <si>
-    <t>922 外交學系戰略與國際事務碩士在職專班</t>
-  </si>
-  <si>
-    <t>981 國家安全與大陸研究碩士在職專班</t>
-  </si>
-  <si>
-    <t>863 日本研究博士學位學程</t>
+    <t>日學博</t>
   </si>
   <si>
     <t>862 國際研究英語碩士學位學程</t>
   </si>
   <si>
     <t>國研碩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>國務院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -188,21 +148,102 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>國研碩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為11.34%，低於（或等於）院三年均值者計有1個系，為外交系11.34%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為59,771，高於（或等於）院三年均值者計有1個系，為外交系59,771。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為3.14，低於院三年均值者計有2個系，為國安專2.37、國研碩2.42。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為8.38，高於院三年均值者計有3個系，為外交系10.82、東亞所10.14、國研碩8.41。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為25.93%，高於院三年均值者計有2個系，為日學博50%、外交系40%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為5.33，包含外交系0.67、俄研所0.33、日學碩0.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -385,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,15 +461,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{80128B12-19F5-413A-8D67-7378E353EED3}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{90D255D6-34D9-448D-AFD1-6720468CD0ED}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{3DC9B2CD-737F-4F58-8D2E-9E202751DAE8}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{B8D60034-8C43-4B26-B694-523037A5BA23}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{BCD0C64F-7A04-42C0-AD3E-AD726C1F48E5}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{94F4FDD4-7CE7-42CE-A962-493B7B7593C4}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,8 +561,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -519,17 +575,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6598-4B5E-BFA5-CE9158138099}"/>
+              <c16:uniqueId val="{00000000-ACAF-4808-94EB-B078DA2C36BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -566,8 +625,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -577,17 +639,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6598-4B5E-BFA5-CE9158138099}"/>
+              <c16:uniqueId val="{00000001-ACAF-4808-94EB-B078DA2C36BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -624,8 +689,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -635,17 +703,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.6499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6499999999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6598-4B5E-BFA5-CE9158138099}"/>
+              <c16:uniqueId val="{00000002-ACAF-4808-94EB-B078DA2C36BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -760,7 +831,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6598-4B5E-BFA5-CE9158138099}"/>
+                  <c16:uniqueId val="{00000003-ACAF-4808-94EB-B078DA2C36BF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -838,8 +909,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -849,10 +923,13 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,7 +937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6598-4B5E-BFA5-CE9158138099}"/>
+              <c16:uniqueId val="{00000004-ACAF-4808-94EB-B078DA2C36BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -960,7 +1037,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1143,8 +1220,17 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1154,17 +1240,26 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.28570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.36359999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C909-4CF8-B181-26EBDEFFB443}"/>
+              <c16:uniqueId val="{00000000-A0BD-41F9-BACD-D9BC3356B4F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1201,8 +1296,17 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1212,17 +1316,26 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.1429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C909-4CF8-B181-26EBDEFFB443}"/>
+              <c16:uniqueId val="{00000001-A0BD-41F9-BACD-D9BC3356B4F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1259,8 +1372,17 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1270,17 +1392,26 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22220000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C909-4CF8-B181-26EBDEFFB443}"/>
+              <c16:uniqueId val="{00000002-A0BD-41F9-BACD-D9BC3356B4F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1395,7 +1526,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C909-4CF8-B181-26EBDEFFB443}"/>
+                  <c16:uniqueId val="{00000003-A0BD-41F9-BACD-D9BC3356B4F2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1473,8 +1604,17 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1484,10 +1624,19 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.25929999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1644,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C909-4CF8-B181-26EBDEFFB443}"/>
+              <c16:uniqueId val="{00000004-A0BD-41F9-BACD-D9BC3356B4F2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1595,7 +1744,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1778,8 +1927,32 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>戰略碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1789,17 +1962,41 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>71496</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0;\-#,###;0">
+                  <c:v>71495.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E93-4F11-9CA6-8B3B29946FCB}"/>
+              <c16:uniqueId val="{00000000-04B9-4D77-BD0A-B3222638880C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1836,8 +2033,32 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>戰略碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1847,17 +2068,41 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>54754.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0;\-#,###;0">
+                  <c:v>54754.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E93-4F11-9CA6-8B3B29946FCB}"/>
+              <c16:uniqueId val="{00000001-04B9-4D77-BD0A-B3222638880C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1894,8 +2139,32 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>戰略碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1905,17 +2174,41 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>53085.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0;\-#,###;0">
+                  <c:v>53085.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3E93-4F11-9CA6-8B3B29946FCB}"/>
+              <c16:uniqueId val="{00000002-04B9-4D77-BD0A-B3222638880C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2030,7 +2323,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3E93-4F11-9CA6-8B3B29946FCB}"/>
+                  <c16:uniqueId val="{00000003-04B9-4D77-BD0A-B3222638880C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2108,8 +2401,32 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>戰略碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2119,10 +2436,34 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>59770.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59770.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,7 +2471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3E93-4F11-9CA6-8B3B29946FCB}"/>
+              <c16:uniqueId val="{00000004-04B9-4D77-BD0A-B3222638880C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2230,7 +2571,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2413,8 +2754,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2424,17 +2783,35 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BA28-48A8-935E-8961A99CD92B}"/>
+              <c16:uniqueId val="{00000000-C6DE-40F6-96B0-1C7508D971D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2471,8 +2848,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2482,17 +2877,35 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BA28-48A8-935E-8961A99CD92B}"/>
+              <c16:uniqueId val="{00000001-C6DE-40F6-96B0-1C7508D971D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2529,8 +2942,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2540,17 +2971,35 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BA28-48A8-935E-8961A99CD92B}"/>
+              <c16:uniqueId val="{00000002-C6DE-40F6-96B0-1C7508D971D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2665,7 +3114,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BA28-48A8-935E-8961A99CD92B}"/>
+                  <c16:uniqueId val="{00000003-C6DE-40F6-96B0-1C7508D971D8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2743,8 +3192,26 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>國安專</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2754,10 +3221,28 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,7 +3250,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BA28-48A8-935E-8961A99CD92B}"/>
+              <c16:uniqueId val="{00000004-C6DE-40F6-96B0-1C7508D971D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2865,7 +3350,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3048,8 +3533,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3059,17 +3562,35 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,###;#,###;0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F2DE-4560-B77F-421546B5A4A9}"/>
+              <c16:uniqueId val="{00000000-B880-4EFC-AA78-449DE1F7E134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3106,8 +3627,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3117,17 +3656,35 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F2DE-4560-B77F-421546B5A4A9}"/>
+              <c16:uniqueId val="{00000001-B880-4EFC-AA78-449DE1F7E134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3164,8 +3721,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3175,17 +3750,35 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F2DE-4560-B77F-421546B5A4A9}"/>
+              <c16:uniqueId val="{00000002-B880-4EFC-AA78-449DE1F7E134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3300,7 +3893,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F2DE-4560-B77F-421546B5A4A9}"/>
+                  <c16:uniqueId val="{00000003-B880-4EFC-AA78-449DE1F7E134}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3378,8 +3971,26 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>東亞所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>國研碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>日學博</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3389,10 +4000,28 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3800000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,7 +4029,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F2DE-4560-B77F-421546B5A4A9}"/>
+              <c16:uniqueId val="{00000004-B880-4EFC-AA78-449DE1F7E134}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3500,7 +4129,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3694,7 +4323,7 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3704,7 +4333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDD6-4654-AFEB-BA122E8D6F0F}"/>
+              <c16:uniqueId val="{00000000-A62D-41D1-A35B-FDABF9B11383}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3752,17 +4381,17 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EDD6-4654-AFEB-BA122E8D6F0F}"/>
+              <c16:uniqueId val="{00000001-A62D-41D1-A35B-FDABF9B11383}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3810,7 +4439,7 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3820,7 +4449,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EDD6-4654-AFEB-BA122E8D6F0F}"/>
+              <c16:uniqueId val="{00000002-A62D-41D1-A35B-FDABF9B11383}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3935,7 +4564,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EDD6-4654-AFEB-BA122E8D6F0F}"/>
+                  <c16:uniqueId val="{00000003-A62D-41D1-A35B-FDABF9B11383}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4024,10 +4653,10 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4664,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EDD6-4654-AFEB-BA122E8D6F0F}"/>
+              <c16:uniqueId val="{00000004-A62D-41D1-A35B-FDABF9B11383}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4135,7 +4764,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4318,8 +4947,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4329,17 +4967,26 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-26A2-4AA9-9924-D47C9F0BF8D2}"/>
+              <c16:uniqueId val="{00000000-F469-44C6-AD17-E5766904A0D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4376,8 +5023,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4387,17 +5043,26 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-26A2-4AA9-9924-D47C9F0BF8D2}"/>
+              <c16:uniqueId val="{00000001-F469-44C6-AD17-E5766904A0D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4434,8 +5099,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4445,17 +5119,26 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-26A2-4AA9-9924-D47C9F0BF8D2}"/>
+              <c16:uniqueId val="{00000002-F469-44C6-AD17-E5766904A0D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4570,7 +5253,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-26A2-4AA9-9924-D47C9F0BF8D2}"/>
+                  <c16:uniqueId val="{00000003-F469-44C6-AD17-E5766904A0D0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4648,8 +5331,17 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>外交系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>俄研所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>日學碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4659,10 +5351,19 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,7 +5371,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-26A2-4AA9-9924-D47C9F0BF8D2}"/>
+              <c16:uniqueId val="{00000004-F469-44C6-AD17-E5766904A0D0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4770,7 +5471,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4899,7 +5600,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6573E4D-C58D-4040-97F5-E8F6C4237E79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21850675-2A76-4591-AD09-341841B96260}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4932,7 +5633,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4416BB-D4FC-4EC8-A4BD-C9E74A07E237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF4BD0C-B4E9-464C-A0EF-38F749BD1D8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4965,7 +5666,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CFE42E9-0A1F-4192-8BA0-3FADB131C001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9D0DD4-65E6-4499-9F81-CC4DEB5FBC9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,7 +5699,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A259F45B-96B9-4E5C-AACE-7AF87BCF5137}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569DEAFB-96FC-4C5B-AFBF-CA818A659B34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5031,7 +5732,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65883EA-0FC3-45AE-AD20-449199718587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED1995F-6F38-4924-AE98-576646E62F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5064,7 +5765,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F466AC-74B2-445D-AA10-84E3FCEECEDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C6F08-C821-4DC6-BA1E-A03302190941}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5097,7 +5798,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670E3A60-2F3A-48CB-A73C-C2E9570D92F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19F5EA5-C380-4E89-9A80-968A4CF7EBE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5424,7 +6125,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{DE71919F-4740-4034-9D82-E80610C6862B}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{7ACFB098-FB50-4EB2-BF35-EA17043FEE9A}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5436,9 +6137,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0F35BB-0D89-4E6D-8918-D1818CE4A21E}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B830A70-87AD-46A2-A5D3-76167C75185E}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5452,397 +6153,663 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3.67</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="12">
+        <v>6</v>
+      </c>
+      <c r="J8" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.62</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3.25</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3.88</v>
+      </c>
+      <c r="G10" s="12">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>2.62</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.04</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3.56</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2.62</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{C9BBF799-35A8-4139-BF79-36B9DD1B2147}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{1B6AF420-7ADC-4E86-AE05-85F15DE53497}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{E96332FC-2E01-4CE6-B77B-4DE7F5CB7C88}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{0121D642-B737-42E9-9E96-036DE2EE7D3A}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AA82A3C0-965E-4C88-89FF-13E275659EF3}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{03F2F2FA-AEEE-4AA7-8C5A-7F5DD6FE30F5}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{8C10D1E5-57D3-45DD-A632-B24E826FEE1F}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{6BADFDA2-F094-4C30-A9C9-9343A7A574FD}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{C32CECE9-4932-4BF5-BFD7-1DB4A4C44947}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{3824799F-25B4-4930-94A4-8A5B52F907A4}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{E5CC1950-BED8-40AE-AF1C-AFDC8D47CBE4}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{79A623DC-E30A-4687-85F8-5F5F75C6AB3A}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{84E3DC3E-21F2-4CFA-B9C8-33F50F7C6303}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{6BE095F6-3469-4783-88D9-59C3E869FD72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B2D010-87AF-4D61-92F1-7BBFDCBF0CBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0749CD13-C858-4399-BD24-B0659B8F248D}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.1134</v>
+      </c>
+      <c r="D2" s="13">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.1268</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.1134</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.1268</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition descending="1" ref="G1:G10"/>
+      <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5853,269 +6820,269 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6260995A-482B-47ED-A586-4DB203D61F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBE1F71-46E1-4B7B-8564-C4EC217E735D}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>42</v>
+      <c r="C2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.5</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.5</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="G5" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition descending="1" ref="G1:G10"/>
+      <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6126,269 +7093,269 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF376F69-36EB-40C1-81C1-7B2A27AE0527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31442047-FBF8-43D1-B404-FA0B0DD39F9E}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>59770.73</v>
+      </c>
+      <c r="D2" s="11">
+        <v>53085.43</v>
+      </c>
+      <c r="E2" s="11">
+        <v>54754.54</v>
+      </c>
+      <c r="F2" s="11">
+        <v>71496</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="11">
+        <v>59770.73</v>
+      </c>
+      <c r="D10" s="11">
+        <v>53085.43</v>
+      </c>
+      <c r="E10" s="11">
+        <v>54754.54</v>
+      </c>
+      <c r="F10" s="11">
+        <v>71495.81</v>
+      </c>
+      <c r="G10" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition descending="1" ref="G1:G10"/>
+      <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6399,269 +7366,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89146D96-5AEE-4AE9-9B0A-B93DEB49D913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1174D318-A8D1-408C-81F8-C60F6B74CFF9}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.37</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2.42</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3.19</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.24</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.24</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.11</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3.97</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3.75</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3.14</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3.24</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3.12</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3.08</v>
+      </c>
+      <c r="G8" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition descending="1" ref="G1:G10"/>
+      <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6672,269 +7639,269 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338F79D5-098B-4940-B503-95A2F844B45C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B88F5E5-FAC2-44D7-AC58-54FA916BB2F4}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>10.82</v>
+      </c>
+      <c r="D2" s="15">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="E2" s="15">
+        <v>11.41</v>
+      </c>
+      <c r="F2" s="15">
+        <v>10.87</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10.14</v>
+      </c>
+      <c r="D3" s="15">
+        <v>10.37</v>
+      </c>
+      <c r="E3" s="15">
+        <v>9.77</v>
+      </c>
+      <c r="F3" s="15">
+        <v>10.37</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="15">
+        <v>8.41</v>
+      </c>
+      <c r="D4" s="16">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="F4" s="15">
+        <v>9.24</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>7.56</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6.67</v>
+      </c>
+      <c r="E5" s="16">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15">
+        <v>9.06</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6.44</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7.17</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6.15</v>
+      </c>
+      <c r="F6" s="16">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C7" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.29</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1.44</v>
+      </c>
+      <c r="F7" s="15">
+        <v>2.15</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="15">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="D8" s="15">
+        <v>8.32</v>
+      </c>
+      <c r="E8" s="15">
+        <v>8.24</v>
+      </c>
+      <c r="F8" s="15">
+        <v>8.59</v>
+      </c>
+      <c r="G8" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition descending="1" ref="G1:G10"/>
+      <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6945,68 +7912,69 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861D34D-A29C-490A-AC3D-FD5678E0A0B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599B80B2-46C6-446C-8121-9DD16572F276}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -7014,197 +7982,197 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition descending="1" ref="G1:G10"/>
+      <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
@@ -7218,269 +8186,270 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E9F6C9-6923-474C-B0AC-D91E8ED36756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D302DC8-4040-44D3-8D2D-774D7A7472E2}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="15">
+        <v>5.33</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-      <sortCondition descending="1" ref="G1:G10"/>
+      <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/國際事務學院.xlsx
+++ b/test/1. 各院彙整資料/國際事務學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F440A4-9E92-4CA0-B64E-AF93BB0A272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACA308-689C-4E94-9B0A-DD9955B9BCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{08CC219F-DB53-4152-9C38-7ECC706FB9A7}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{08CC219F-DB53-4152-9C38-7ECC706FB9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$10</definedName>
@@ -194,42 +194,34 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為11.34%，低於（或等於）院三年均值者計有1個系，為外交系11.34%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為25.93%，高於院三年均值者計有2個系，為日學博50%、外交系40%。</t>
   </si>
   <si>
     <t>院三年均值為59,771，高於（或等於）院三年均值者計有1個系，為外交系59,771。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為3.14，低於院三年均值者計有2個系，為國安專2.37、國研碩2.42。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為8.38，高於院三年均值者計有3個系，為外交系10.82、東亞所10.14、國研碩8.41。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為25.93%，高於院三年均值者計有2個系，為日學博50%、外交系40%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為5.33，包含外交系0.67、俄研所0.33、日學碩0.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -238,10 +230,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -461,9 +453,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,6 +463,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACAF-4808-94EB-B078DA2C36BF}"/>
+              <c16:uniqueId val="{00000000-199C-4318-B1BD-FC09CE474164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -652,7 +644,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ACAF-4808-94EB-B078DA2C36BF}"/>
+              <c16:uniqueId val="{00000001-199C-4318-B1BD-FC09CE474164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -716,7 +708,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ACAF-4808-94EB-B078DA2C36BF}"/>
+              <c16:uniqueId val="{00000002-199C-4318-B1BD-FC09CE474164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -774,7 +766,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -829,9 +821,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-ACAF-4808-94EB-B078DA2C36BF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -937,7 +926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-ACAF-4808-94EB-B078DA2C36BF}"/>
+              <c16:uniqueId val="{00000004-199C-4318-B1BD-FC09CE474164}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1259,7 +1248,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0BD-41F9-BACD-D9BC3356B4F2}"/>
+              <c16:uniqueId val="{00000000-5F29-4A50-987A-86E6CEAB97D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,7 +1324,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A0BD-41F9-BACD-D9BC3356B4F2}"/>
+              <c16:uniqueId val="{00000001-5F29-4A50-987A-86E6CEAB97D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1411,7 +1400,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A0BD-41F9-BACD-D9BC3356B4F2}"/>
+              <c16:uniqueId val="{00000002-5F29-4A50-987A-86E6CEAB97D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1469,7 +1458,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1524,9 +1513,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A0BD-41F9-BACD-D9BC3356B4F2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1644,7 +1630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A0BD-41F9-BACD-D9BC3356B4F2}"/>
+              <c16:uniqueId val="{00000004-5F29-4A50-987A-86E6CEAB97D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1996,7 +1982,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04B9-4D77-BD0A-B3222638880C}"/>
+              <c16:uniqueId val="{00000000-CBE3-4B7F-B12A-F63B48C50D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2102,7 +2088,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-04B9-4D77-BD0A-B3222638880C}"/>
+              <c16:uniqueId val="{00000001-CBE3-4B7F-B12A-F63B48C50D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2208,7 +2194,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-04B9-4D77-BD0A-B3222638880C}"/>
+              <c16:uniqueId val="{00000002-CBE3-4B7F-B12A-F63B48C50D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2266,7 +2252,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="8"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2321,9 +2307,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-04B9-4D77-BD0A-B3222638880C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2471,7 +2454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-04B9-4D77-BD0A-B3222638880C}"/>
+              <c16:uniqueId val="{00000004-CBE3-4B7F-B12A-F63B48C50D68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2811,7 +2794,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6DE-40F6-96B0-1C7508D971D8}"/>
+              <c16:uniqueId val="{00000000-66E5-47F0-8CA6-536147A6AB1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2905,7 +2888,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6DE-40F6-96B0-1C7508D971D8}"/>
+              <c16:uniqueId val="{00000001-66E5-47F0-8CA6-536147A6AB1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2999,7 +2982,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6DE-40F6-96B0-1C7508D971D8}"/>
+              <c16:uniqueId val="{00000002-66E5-47F0-8CA6-536147A6AB1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3057,7 +3040,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3112,9 +3095,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C6DE-40F6-96B0-1C7508D971D8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3250,7 +3230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C6DE-40F6-96B0-1C7508D971D8}"/>
+              <c16:uniqueId val="{00000004-66E5-47F0-8CA6-536147A6AB1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3590,7 +3570,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B880-4EFC-AA78-449DE1F7E134}"/>
+              <c16:uniqueId val="{00000000-2B09-4677-854E-D2718DF8748A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3684,7 +3664,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B880-4EFC-AA78-449DE1F7E134}"/>
+              <c16:uniqueId val="{00000001-2B09-4677-854E-D2718DF8748A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3778,7 +3758,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B880-4EFC-AA78-449DE1F7E134}"/>
+              <c16:uniqueId val="{00000002-2B09-4677-854E-D2718DF8748A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3836,7 +3816,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3891,9 +3871,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B880-4EFC-AA78-449DE1F7E134}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4029,7 +4006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B880-4EFC-AA78-449DE1F7E134}"/>
+              <c16:uniqueId val="{00000004-2B09-4677-854E-D2718DF8748A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4333,7 +4310,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A62D-41D1-A35B-FDABF9B11383}"/>
+              <c16:uniqueId val="{00000000-D604-4E54-A79D-617E9A5ADCAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4391,7 +4368,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A62D-41D1-A35B-FDABF9B11383}"/>
+              <c16:uniqueId val="{00000001-D604-4E54-A79D-617E9A5ADCAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4449,7 +4426,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A62D-41D1-A35B-FDABF9B11383}"/>
+              <c16:uniqueId val="{00000002-D604-4E54-A79D-617E9A5ADCAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4564,7 +4541,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A62D-41D1-A35B-FDABF9B11383}"/>
+                  <c16:uniqueId val="{00000003-D604-4E54-A79D-617E9A5ADCAC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4664,7 +4641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A62D-41D1-A35B-FDABF9B11383}"/>
+              <c16:uniqueId val="{00000004-D604-4E54-A79D-617E9A5ADCAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4986,7 +4963,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F469-44C6-AD17-E5766904A0D0}"/>
+              <c16:uniqueId val="{00000000-A93F-4E73-9210-00A132BB92A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5062,7 +5039,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F469-44C6-AD17-E5766904A0D0}"/>
+              <c16:uniqueId val="{00000001-A93F-4E73-9210-00A132BB92A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5138,7 +5115,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F469-44C6-AD17-E5766904A0D0}"/>
+              <c16:uniqueId val="{00000002-A93F-4E73-9210-00A132BB92A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5196,7 +5173,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5251,9 +5228,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F469-44C6-AD17-E5766904A0D0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5371,7 +5345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F469-44C6-AD17-E5766904A0D0}"/>
+              <c16:uniqueId val="{00000004-A93F-4E73-9210-00A132BB92A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5600,7 +5574,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21850675-2A76-4591-AD09-341841B96260}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1E57D8-09B1-4DE2-8A86-91418F4EB49A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5633,7 +5607,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF4BD0C-B4E9-464C-A0EF-38F749BD1D8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CE8154-0D1A-48F2-94A5-21B9217BE022}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5666,7 +5640,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9D0DD4-65E6-4499-9F81-CC4DEB5FBC9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DB8849-DA19-4CEA-B280-0A59370254AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5699,7 +5673,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569DEAFB-96FC-4C5B-AFBF-CA818A659B34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8020404C-4508-4582-8607-EF7DB2524D83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5732,7 +5706,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED1995F-6F38-4924-AE98-576646E62F20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC023F2-3288-4448-B883-97F021E0BBAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5765,7 +5739,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6C6F08-C821-4DC6-BA1E-A03302190941}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685EBC4A-D87D-44C8-B469-6E5EA92BA1FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5798,7 +5772,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19F5EA5-C380-4E89-9A80-968A4CF7EBE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192FBBB5-CA96-4D31-9AB0-281DF6EF8DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6216,28 +6190,28 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="D3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6248,28 +6222,28 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="E4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="16">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6280,28 +6254,28 @@
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>2</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6312,28 +6286,28 @@
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>6</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>4</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>5</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6342,30 +6316,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="12">
+        <v>44</v>
+      </c>
+      <c r="C7" s="16">
         <v>1.75</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>3.67</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>3</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>3.5</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>1.5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>1.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6376,28 +6350,28 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>1</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>5</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="G8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="16">
         <v>6</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="16">
         <v>3</v>
       </c>
     </row>
@@ -6408,28 +6382,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="C9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6438,30 +6412,30 @@
         <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="12">
+        <v>45</v>
+      </c>
+      <c r="C10" s="16">
         <v>1.62</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>3.33</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>3.25</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>3.88</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>1.5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>2.62</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>2.25</v>
       </c>
     </row>
@@ -6472,28 +6446,28 @@
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="G11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6504,48 +6478,48 @@
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>1.55</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>3.33</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>3.04</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>3.56</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>2</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>1.5</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>2.62</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>2.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{6BADFDA2-F094-4C30-A9C9-9343A7A574FD}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{C32CECE9-4932-4BF5-BFD7-1DB4A4C44947}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{3824799F-25B4-4930-94A4-8A5B52F907A4}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{E5CC1950-BED8-40AE-AF1C-AFDC8D47CBE4}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{79A623DC-E30A-4687-85F8-5F5F75C6AB3A}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{84E3DC3E-21F2-4CFA-B9C8-33F50F7C6303}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{6BE095F6-3469-4783-88D9-59C3E869FD72}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{A139E49F-B28D-416F-8D71-C12EAD2950EF}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{7ACC61FD-23CA-4077-A60C-B608704E9BC3}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{047D47B5-A9DF-4948-A675-692701CCE8A5}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{AC2853FC-0EBB-4902-8FE4-336C3DE0B326}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{07FDE529-F3BB-4490-875D-2FA315C2BE15}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{83A31A72-A546-4328-832B-5B8BB22B9FE4}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{EACB7A52-0576-4795-A6C3-0CB81E4E9ADC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0749CD13-C858-4399-BD24-B0659B8F248D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CADA12C-F796-46B1-A572-0F5D897C1DC9}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -6598,16 +6572,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.1134</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.1429</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.1268</v>
       </c>
       <c r="G2" s="9">
@@ -6621,16 +6595,16 @@
       <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.1134</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.1429</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.1268</v>
       </c>
       <c r="G3" s="9">
@@ -6644,16 +6618,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6667,16 +6641,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6690,16 +6664,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6713,16 +6687,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -6736,16 +6710,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -6759,16 +6733,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -6782,16 +6756,16 @@
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -6809,7 +6783,7 @@
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6820,7 +6794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBE1F71-46E1-4B7B-8564-C4EC217E735D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F033A7E-1273-40FB-8067-FAE7889D59CB}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -6861,7 +6835,7 @@
         <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6871,16 +6845,16 @@
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>0.5</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>0.5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="12">
         <v>0.5</v>
       </c>
       <c r="G2" s="9">
@@ -6894,16 +6868,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>0.4</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="E3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="12">
         <v>0.5</v>
       </c>
       <c r="G3" s="9">
@@ -6917,16 +6891,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.1429</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.28570000000000001</v>
       </c>
       <c r="G4" s="9">
@@ -6940,16 +6914,16 @@
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>0.25929999999999997</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.22220000000000001</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.1429</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.36359999999999998</v>
       </c>
       <c r="G5" s="9">
@@ -6963,16 +6937,16 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6986,16 +6960,16 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7009,16 +6983,16 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -7032,16 +7006,16 @@
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -7055,16 +7029,16 @@
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7082,7 +7056,7 @@
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7093,7 +7067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31442047-FBF8-43D1-B404-FA0B0DD39F9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1910DB-C466-4B6F-959F-4F15A88B2FE5}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -7105,7 +7079,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7134,7 +7108,7 @@
         <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7144,16 +7118,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>59770.73</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>53085.43</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>54754.54</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>71496</v>
       </c>
       <c r="G2" s="9">
@@ -7167,16 +7141,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="9">
@@ -7190,16 +7164,16 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="9">
@@ -7213,16 +7187,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="9">
@@ -7236,16 +7210,16 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="9">
@@ -7259,16 +7233,16 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="9">
@@ -7282,16 +7256,16 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="9">
@@ -7305,16 +7279,16 @@
       <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>0</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="9">
@@ -7328,16 +7302,16 @@
       <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>59770.73</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>53085.43</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>54754.54</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="13">
         <v>71495.81</v>
       </c>
       <c r="G10" s="9">
@@ -7366,7 +7340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1174D318-A8D1-408C-81F8-C60F6B74CFF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746F390C-A9D0-43ED-955D-A4BEAF22B598}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -7378,7 +7352,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7407,7 +7381,7 @@
         <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7417,16 +7391,16 @@
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2.37</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>2.5</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>2.25</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2.4</v>
       </c>
       <c r="G2" s="9">
@@ -7440,16 +7414,16 @@
       <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>2.42</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2.5</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>2.33</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>2.4</v>
       </c>
       <c r="G3" s="9">
@@ -7463,16 +7437,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>3.2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>3.19</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3.24</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>3.2</v>
       </c>
       <c r="G4" s="9">
@@ -7486,16 +7460,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.24</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>3.11</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>2.5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>3.6</v>
       </c>
       <c r="G5" s="9">
@@ -7509,16 +7483,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3.97</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>3.75</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3.7</v>
       </c>
       <c r="G6" s="9">
@@ -7532,16 +7506,16 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>3.9</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>3.8</v>
       </c>
       <c r="G7" s="9">
@@ -7555,16 +7529,16 @@
       <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>3.14</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>3.24</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>3.12</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>3.08</v>
       </c>
       <c r="G8" s="9">
@@ -7578,16 +7552,16 @@
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -7601,16 +7575,16 @@
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7628,7 +7602,7 @@
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7639,7 +7613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B88F5E5-FAC2-44D7-AC58-54FA916BB2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98347C4A-9C89-4CF4-943B-52D4A4DDD2D6}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -7651,7 +7625,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7680,7 +7655,7 @@
         <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7690,16 +7665,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>10.82</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>10.210000000000001</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>11.41</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>10.87</v>
       </c>
       <c r="G2" s="9">
@@ -7713,16 +7688,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>10.14</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>10.37</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>9.77</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>10.37</v>
       </c>
       <c r="G3" s="9">
@@ -7736,16 +7711,16 @@
       <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>8.41</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>8</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>8.2100000000000009</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>9.24</v>
       </c>
       <c r="G4" s="9">
@@ -7759,16 +7734,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>7.56</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>6.67</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>7</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>9.06</v>
       </c>
       <c r="G5" s="9">
@@ -7782,16 +7757,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>6.44</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>7.17</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>6.15</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>6</v>
       </c>
       <c r="G6" s="9">
@@ -7805,16 +7780,16 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>1.72</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>1.29</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>1.44</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>2.15</v>
       </c>
       <c r="G7" s="9">
@@ -7828,16 +7803,16 @@
       <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>8.3800000000000008</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>8.32</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>8.24</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>8.59</v>
       </c>
       <c r="G8" s="9">
@@ -7851,16 +7826,16 @@
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -7874,16 +7849,16 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7901,7 +7876,7 @@
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7912,7 +7887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599B80B2-46C6-446C-8121-9DD16572F276}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AEC56A-2EB4-4F0D-9401-D7F63BAFDDEC}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -7924,8 +7899,10 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7954,7 +7931,7 @@
         <v>38</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7964,16 +7941,16 @@
       <c r="B2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.33</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -7987,16 +7964,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -8010,16 +7987,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -8033,16 +8010,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -8056,16 +8033,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -8079,16 +8056,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -8102,16 +8079,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -8125,16 +8102,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -8148,16 +8125,16 @@
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -8175,7 +8152,7 @@
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8186,7 +8163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D302DC8-4040-44D3-8D2D-774D7A7472E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F10D82-E251-4E74-8050-56818A0D3DA3}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -8198,8 +8175,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8238,16 +8214,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.67</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -8261,16 +8237,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>0.33</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
       <c r="G3" s="9">
@@ -8284,16 +8260,16 @@
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>0.33</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="9">
@@ -8307,16 +8283,16 @@
       <c r="B5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>5.33</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>3</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>4</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>9</v>
       </c>
       <c r="G5" s="9">
@@ -8330,16 +8306,16 @@
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -8353,16 +8329,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -8376,16 +8352,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -8399,16 +8375,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -8422,16 +8398,16 @@
       <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -8449,7 +8425,7 @@
       <sortCondition ref="G1:G10"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/國際事務學院.xlsx
+++ b/test/1. 各院彙整資料/國際事務學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBACA308-689C-4E94-9B0A-DD9955B9BCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C32B9-9377-4430-8D3E-B0976A499A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{08CC219F-DB53-4152-9C38-7ECC706FB9A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{08CC219F-DB53-4152-9C38-7ECC706FB9A7}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$10</definedName>
@@ -580,7 +580,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-199C-4318-B1BD-FC09CE474164}"/>
+              <c16:uniqueId val="{00000000-446C-4A30-A852-77CBFF679C51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -644,7 +644,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-199C-4318-B1BD-FC09CE474164}"/>
+              <c16:uniqueId val="{00000001-446C-4A30-A852-77CBFF679C51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -708,7 +708,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-199C-4318-B1BD-FC09CE474164}"/>
+              <c16:uniqueId val="{00000002-446C-4A30-A852-77CBFF679C51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -926,7 +926,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-199C-4318-B1BD-FC09CE474164}"/>
+              <c16:uniqueId val="{00000004-446C-4A30-A852-77CBFF679C51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1248,7 +1248,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F29-4A50-987A-86E6CEAB97D5}"/>
+              <c16:uniqueId val="{00000000-1AA1-4BA9-AAAD-F9DC3A6DA789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1324,7 +1324,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5F29-4A50-987A-86E6CEAB97D5}"/>
+              <c16:uniqueId val="{00000001-1AA1-4BA9-AAAD-F9DC3A6DA789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1400,7 +1400,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5F29-4A50-987A-86E6CEAB97D5}"/>
+              <c16:uniqueId val="{00000002-1AA1-4BA9-AAAD-F9DC3A6DA789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1630,7 +1630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5F29-4A50-987A-86E6CEAB97D5}"/>
+              <c16:uniqueId val="{00000004-1AA1-4BA9-AAAD-F9DC3A6DA789}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1982,7 +1982,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBE3-4B7F-B12A-F63B48C50D68}"/>
+              <c16:uniqueId val="{00000000-A3A0-43E4-A418-C866534C73F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2088,7 +2088,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBE3-4B7F-B12A-F63B48C50D68}"/>
+              <c16:uniqueId val="{00000001-A3A0-43E4-A418-C866534C73F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2194,7 +2194,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CBE3-4B7F-B12A-F63B48C50D68}"/>
+              <c16:uniqueId val="{00000002-A3A0-43E4-A418-C866534C73F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2454,7 +2454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CBE3-4B7F-B12A-F63B48C50D68}"/>
+              <c16:uniqueId val="{00000004-A3A0-43E4-A418-C866534C73F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2794,7 +2794,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-66E5-47F0-8CA6-536147A6AB1B}"/>
+              <c16:uniqueId val="{00000000-AEF1-4C4E-9EA2-A1091329B6A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2888,7 +2888,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-66E5-47F0-8CA6-536147A6AB1B}"/>
+              <c16:uniqueId val="{00000001-AEF1-4C4E-9EA2-A1091329B6A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2982,7 +2982,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-66E5-47F0-8CA6-536147A6AB1B}"/>
+              <c16:uniqueId val="{00000002-AEF1-4C4E-9EA2-A1091329B6A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3230,7 +3230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-66E5-47F0-8CA6-536147A6AB1B}"/>
+              <c16:uniqueId val="{00000004-AEF1-4C4E-9EA2-A1091329B6A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3570,7 +3570,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B09-4677-854E-D2718DF8748A}"/>
+              <c16:uniqueId val="{00000000-EA5B-4362-8E58-D21BDC9F3807}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3664,7 +3664,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B09-4677-854E-D2718DF8748A}"/>
+              <c16:uniqueId val="{00000001-EA5B-4362-8E58-D21BDC9F3807}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3758,7 +3758,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B09-4677-854E-D2718DF8748A}"/>
+              <c16:uniqueId val="{00000002-EA5B-4362-8E58-D21BDC9F3807}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4006,7 +4006,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2B09-4677-854E-D2718DF8748A}"/>
+              <c16:uniqueId val="{00000004-EA5B-4362-8E58-D21BDC9F3807}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4310,7 +4310,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D604-4E54-A79D-617E9A5ADCAC}"/>
+              <c16:uniqueId val="{00000000-1642-40C3-9F34-FA0613F76922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4368,7 +4368,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D604-4E54-A79D-617E9A5ADCAC}"/>
+              <c16:uniqueId val="{00000001-1642-40C3-9F34-FA0613F76922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4426,7 +4426,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D604-4E54-A79D-617E9A5ADCAC}"/>
+              <c16:uniqueId val="{00000002-1642-40C3-9F34-FA0613F76922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4541,7 +4541,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D604-4E54-A79D-617E9A5ADCAC}"/>
+                  <c16:uniqueId val="{00000003-1642-40C3-9F34-FA0613F76922}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4641,7 +4641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D604-4E54-A79D-617E9A5ADCAC}"/>
+              <c16:uniqueId val="{00000004-1642-40C3-9F34-FA0613F76922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4963,7 +4963,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A93F-4E73-9210-00A132BB92A4}"/>
+              <c16:uniqueId val="{00000000-6C7F-42A2-B735-80BF9A494A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5039,7 +5039,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A93F-4E73-9210-00A132BB92A4}"/>
+              <c16:uniqueId val="{00000001-6C7F-42A2-B735-80BF9A494A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5115,7 +5115,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A93F-4E73-9210-00A132BB92A4}"/>
+              <c16:uniqueId val="{00000002-6C7F-42A2-B735-80BF9A494A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5345,7 +5345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A93F-4E73-9210-00A132BB92A4}"/>
+              <c16:uniqueId val="{00000004-6C7F-42A2-B735-80BF9A494A09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5574,7 +5574,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1E57D8-09B1-4DE2-8A86-91418F4EB49A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45035C80-E59A-45D1-B57F-04E3DFE6C0BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5607,7 +5607,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CE8154-0D1A-48F2-94A5-21B9217BE022}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DA1FBB-F9DB-456B-8037-52A7FE7D969B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5640,7 +5640,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DB8849-DA19-4CEA-B280-0A59370254AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3773D778-0E77-4CFF-B936-E43938B17EC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5673,7 +5673,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8020404C-4508-4582-8607-EF7DB2524D83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DAC7D3-CC98-4A28-8134-72FDB39E01FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5706,7 +5706,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC023F2-3288-4448-B883-97F021E0BBAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D24713-D835-4EC9-85E5-BAB038D20B4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5739,7 +5739,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685EBC4A-D87D-44C8-B469-6E5EA92BA1FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7387DADD-BC53-41E6-BACB-7401AF710717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5772,7 +5772,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192FBBB5-CA96-4D31-9AB0-281DF6EF8DB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7115FE7E-EA6A-492D-867D-FF88388B226A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6506,22 +6506,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{A139E49F-B28D-416F-8D71-C12EAD2950EF}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{7ACC61FD-23CA-4077-A60C-B608704E9BC3}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{047D47B5-A9DF-4948-A675-692701CCE8A5}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{AC2853FC-0EBB-4902-8FE4-336C3DE0B326}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{07FDE529-F3BB-4490-875D-2FA315C2BE15}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{83A31A72-A546-4328-832B-5B8BB22B9FE4}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{EACB7A52-0576-4795-A6C3-0CB81E4E9ADC}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F26784D3-9BFA-468E-AD64-E1C23C079249}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{2A973449-86B0-43AB-B31B-E51D020E0567}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{C06ECA11-4991-4913-AF8A-95CE732AEB9A}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{192EA6FA-5ED6-4E13-BCF8-670375CED9F6}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{4B20EE6F-73B4-414C-9183-A99210CF9603}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{2F97C88B-F0E7-4FB2-A8E7-0DB0D32528BB}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{3AD69158-E59D-4EE1-87D4-C7E083470CF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CADA12C-F796-46B1-A572-0F5D897C1DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FDE8C8-64AC-445C-86B3-B058BC68E6FB}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6539,7 +6539,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -6561,11 +6561,11 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -6794,9 +6794,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F033A7E-1273-40FB-8067-FAE7889D59CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAE638C-550D-428F-AE0D-0F2AA0D6778A}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6812,7 +6812,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -6834,11 +6834,11 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -7067,9 +7067,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1910DB-C466-4B6F-959F-4F15A88B2FE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DA3B54-8331-4D19-BC66-8F0022DC3D4B}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7085,7 +7085,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -7107,11 +7107,11 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -7340,9 +7340,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746F390C-A9D0-43ED-955D-A4BEAF22B598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256BBF84-4D83-4C1A-A2BF-26E763D7F717}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7358,7 +7358,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -7380,11 +7380,11 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -7613,9 +7613,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98347C4A-9C89-4CF4-943B-52D4A4DDD2D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290C57D9-545F-4AEC-8BAF-0775E5593DC8}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7632,7 +7632,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -7654,11 +7654,11 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -7887,9 +7887,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AEC56A-2EB4-4F0D-9401-D7F63BAFDDEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B15314-B381-452E-9BCA-934E239C70D7}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7908,7 +7908,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -7930,11 +7930,11 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -8163,9 +8163,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F10D82-E251-4E74-8050-56818A0D3DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF6FF30-4812-4D42-8A82-90E44444820D}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8181,7 +8181,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -8203,11 +8203,11 @@
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
